--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.6286909073572</v>
+        <v>1.727890333333334</v>
       </c>
       <c r="H2">
-        <v>3.6286909073572</v>
+        <v>5.183671</v>
       </c>
       <c r="I2">
-        <v>0.5812585165756915</v>
+        <v>0.1994732709439545</v>
       </c>
       <c r="J2">
-        <v>0.5812585165756915</v>
+        <v>0.1994732709439544</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N2">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q2">
-        <v>60.1480860507032</v>
+        <v>29.59918877487578</v>
       </c>
       <c r="R2">
-        <v>60.1480860507032</v>
+        <v>266.392698973882</v>
       </c>
       <c r="S2">
-        <v>0.170643828825286</v>
+        <v>0.05902835906306385</v>
       </c>
       <c r="T2">
-        <v>0.170643828825286</v>
+        <v>0.05902835906306383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.6286909073572</v>
+        <v>1.727890333333334</v>
       </c>
       <c r="H3">
-        <v>3.6286909073572</v>
+        <v>5.183671</v>
       </c>
       <c r="I3">
-        <v>0.5812585165756915</v>
+        <v>0.1994732709439545</v>
       </c>
       <c r="J3">
-        <v>0.5812585165756915</v>
+        <v>0.1994732709439544</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q3">
-        <v>99.73979435181582</v>
+        <v>47.70861872390223</v>
       </c>
       <c r="R3">
-        <v>99.73979435181582</v>
+        <v>429.37756851512</v>
       </c>
       <c r="S3">
-        <v>0.2829679464795123</v>
+        <v>0.09514319793884722</v>
       </c>
       <c r="T3">
-        <v>0.2829679464795123</v>
+        <v>0.09514319793884719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.6286909073572</v>
+        <v>1.727890333333334</v>
       </c>
       <c r="H4">
-        <v>3.6286909073572</v>
+        <v>5.183671</v>
       </c>
       <c r="I4">
-        <v>0.5812585165756915</v>
+        <v>0.1994732709439545</v>
       </c>
       <c r="J4">
-        <v>0.5812585165756915</v>
+        <v>0.1994732709439544</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N4">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O4">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P4">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q4">
-        <v>15.09010877937121</v>
+        <v>7.643347079964667</v>
       </c>
       <c r="R4">
-        <v>15.09010877937121</v>
+        <v>68.790123719682</v>
       </c>
       <c r="S4">
-        <v>0.04281156905526939</v>
+        <v>0.01524279058156952</v>
       </c>
       <c r="T4">
-        <v>0.04281156905526939</v>
+        <v>0.01524279058156952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.6286909073572</v>
+        <v>1.727890333333334</v>
       </c>
       <c r="H5">
-        <v>3.6286909073572</v>
+        <v>5.183671</v>
       </c>
       <c r="I5">
-        <v>0.5812585165756915</v>
+        <v>0.1994732709439545</v>
       </c>
       <c r="J5">
-        <v>0.5812585165756915</v>
+        <v>0.1994732709439544</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N5">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q5">
-        <v>29.90247742141291</v>
+        <v>15.07275081060011</v>
       </c>
       <c r="R5">
-        <v>29.90247742141291</v>
+        <v>135.654757295401</v>
       </c>
       <c r="S5">
-        <v>0.08483517221562377</v>
+        <v>0.03005892336047388</v>
       </c>
       <c r="T5">
-        <v>0.08483517221562377</v>
+        <v>0.03005892336047387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.61412670972398</v>
+        <v>3.668509333333333</v>
       </c>
       <c r="H6">
-        <v>2.61412670972398</v>
+        <v>11.005528</v>
       </c>
       <c r="I6">
-        <v>0.4187414834243086</v>
+        <v>0.423504629947633</v>
       </c>
       <c r="J6">
-        <v>0.4187414834243086</v>
+        <v>0.423504629947633</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N6">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q6">
-        <v>43.33097590790247</v>
+        <v>62.84247222464177</v>
       </c>
       <c r="R6">
-        <v>43.33097590790247</v>
+        <v>565.582250021776</v>
       </c>
       <c r="S6">
-        <v>0.1229326504159687</v>
+        <v>0.1253239757042071</v>
       </c>
       <c r="T6">
-        <v>0.1229326504159687</v>
+        <v>0.1253239757042071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.61412670972398</v>
+        <v>3.668509333333333</v>
       </c>
       <c r="H7">
-        <v>2.61412670972398</v>
+        <v>11.005528</v>
       </c>
       <c r="I7">
-        <v>0.4187414834243086</v>
+        <v>0.423504629947633</v>
       </c>
       <c r="J7">
-        <v>0.4187414834243086</v>
+        <v>0.423504629947633</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q7">
-        <v>71.85303656170372</v>
+        <v>101.2908688084622</v>
       </c>
       <c r="R7">
-        <v>71.85303656170372</v>
+        <v>911.6178192761599</v>
       </c>
       <c r="S7">
-        <v>0.2038514951461043</v>
+        <v>0.2019999203123665</v>
       </c>
       <c r="T7">
-        <v>0.2038514951461043</v>
+        <v>0.2019999203123665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.61412670972398</v>
+        <v>3.668509333333333</v>
       </c>
       <c r="H8">
-        <v>2.61412670972398</v>
+        <v>11.005528</v>
       </c>
       <c r="I8">
-        <v>0.4187414834243086</v>
+        <v>0.423504629947633</v>
       </c>
       <c r="J8">
-        <v>0.4187414834243086</v>
+        <v>0.423504629947633</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N8">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O8">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P8">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q8">
-        <v>10.87098830402297</v>
+        <v>16.22770239513067</v>
       </c>
       <c r="R8">
-        <v>10.87098830402297</v>
+        <v>146.049321556176</v>
       </c>
       <c r="S8">
-        <v>0.03084166411795066</v>
+        <v>0.03236219245851051</v>
       </c>
       <c r="T8">
-        <v>0.03084166411795066</v>
+        <v>0.03236219245851051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.668509333333333</v>
+      </c>
+      <c r="H9">
+        <v>11.005528</v>
+      </c>
+      <c r="I9">
+        <v>0.423504629947633</v>
+      </c>
+      <c r="J9">
+        <v>0.423504629947633</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.723210333333332</v>
+      </c>
+      <c r="N9">
+        <v>26.169631</v>
+      </c>
+      <c r="O9">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="P9">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="Q9">
+        <v>32.00117852446311</v>
+      </c>
+      <c r="R9">
+        <v>288.010606720168</v>
+      </c>
+      <c r="S9">
+        <v>0.06381854147254896</v>
+      </c>
+      <c r="T9">
+        <v>0.06381854147254895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.209592</v>
+      </c>
+      <c r="H10">
+        <v>0.628776</v>
+      </c>
+      <c r="I10">
+        <v>0.02419598107423405</v>
+      </c>
+      <c r="J10">
+        <v>0.02419598107423405</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.13024733333333</v>
+      </c>
+      <c r="N10">
+        <v>51.390742</v>
+      </c>
+      <c r="O10">
+        <v>0.2959211466465044</v>
+      </c>
+      <c r="P10">
+        <v>0.2959211466465043</v>
+      </c>
+      <c r="Q10">
+        <v>3.590362799088</v>
+      </c>
+      <c r="R10">
+        <v>32.313265191792</v>
+      </c>
+      <c r="S10">
+        <v>0.007160102463724458</v>
+      </c>
+      <c r="T10">
+        <v>0.007160102463724457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.209592</v>
+      </c>
+      <c r="H11">
+        <v>0.628776</v>
+      </c>
+      <c r="I11">
+        <v>0.02419598107423405</v>
+      </c>
+      <c r="J11">
+        <v>0.02419598107423405</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>27.61090666666666</v>
+      </c>
+      <c r="N11">
+        <v>82.83271999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.4769721651858779</v>
+      </c>
+      <c r="P11">
+        <v>0.4769721651858778</v>
+      </c>
+      <c r="Q11">
+        <v>5.78702515008</v>
+      </c>
+      <c r="R11">
+        <v>52.08322635072</v>
+      </c>
+      <c r="S11">
+        <v>0.01154080948177394</v>
+      </c>
+      <c r="T11">
+        <v>0.01154080948177394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.209592</v>
+      </c>
+      <c r="H12">
+        <v>0.628776</v>
+      </c>
+      <c r="I12">
+        <v>0.02419598107423405</v>
+      </c>
+      <c r="J12">
+        <v>0.02419598107423405</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.423514</v>
+      </c>
+      <c r="N12">
+        <v>13.270542</v>
+      </c>
+      <c r="O12">
+        <v>0.07641520344774541</v>
+      </c>
+      <c r="P12">
+        <v>0.0764152034477454</v>
+      </c>
+      <c r="Q12">
+        <v>0.927133146288</v>
+      </c>
+      <c r="R12">
+        <v>8.344198316591999</v>
+      </c>
+      <c r="S12">
+        <v>0.001848940816405392</v>
+      </c>
+      <c r="T12">
+        <v>0.001848940816405392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.209592</v>
+      </c>
+      <c r="H13">
+        <v>0.628776</v>
+      </c>
+      <c r="I13">
+        <v>0.02419598107423405</v>
+      </c>
+      <c r="J13">
+        <v>0.02419598107423405</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.723210333333332</v>
+      </c>
+      <c r="N13">
+        <v>26.169631</v>
+      </c>
+      <c r="O13">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="P13">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="Q13">
+        <v>1.828315100184</v>
+      </c>
+      <c r="R13">
+        <v>16.454835901656</v>
+      </c>
+      <c r="S13">
+        <v>0.003646128312330263</v>
+      </c>
+      <c r="T13">
+        <v>0.003646128312330262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.056273333333333</v>
+      </c>
+      <c r="H14">
+        <v>9.16882</v>
+      </c>
+      <c r="I14">
+        <v>0.3528261180341785</v>
+      </c>
+      <c r="J14">
+        <v>0.3528261180341785</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.13024733333333</v>
+      </c>
+      <c r="N14">
+        <v>51.390742</v>
+      </c>
+      <c r="O14">
+        <v>0.2959211466465044</v>
+      </c>
+      <c r="P14">
+        <v>0.2959211466465043</v>
+      </c>
+      <c r="Q14">
+        <v>52.35471811827111</v>
+      </c>
+      <c r="R14">
+        <v>471.1924630644399</v>
+      </c>
+      <c r="S14">
+        <v>0.104408709415509</v>
+      </c>
+      <c r="T14">
+        <v>0.104408709415509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.61412670972398</v>
-      </c>
-      <c r="H9">
-        <v>2.61412670972398</v>
-      </c>
-      <c r="I9">
-        <v>0.4187414834243086</v>
-      </c>
-      <c r="J9">
-        <v>0.4187414834243086</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.24056889518625</v>
-      </c>
-      <c r="N9">
-        <v>8.24056889518625</v>
-      </c>
-      <c r="O9">
-        <v>0.1459508459599087</v>
-      </c>
-      <c r="P9">
-        <v>0.1459508459599087</v>
-      </c>
-      <c r="Q9">
-        <v>21.54189125222701</v>
-      </c>
-      <c r="R9">
-        <v>21.54189125222701</v>
-      </c>
-      <c r="S9">
-        <v>0.06111567374428491</v>
-      </c>
-      <c r="T9">
-        <v>0.06111567374428491</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.056273333333333</v>
+      </c>
+      <c r="H15">
+        <v>9.16882</v>
+      </c>
+      <c r="I15">
+        <v>0.3528261180341785</v>
+      </c>
+      <c r="J15">
+        <v>0.3528261180341785</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.61090666666666</v>
+      </c>
+      <c r="N15">
+        <v>82.83271999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.4769721651858779</v>
+      </c>
+      <c r="P15">
+        <v>0.4769721651858778</v>
+      </c>
+      <c r="Q15">
+        <v>84.38647775448888</v>
+      </c>
+      <c r="R15">
+        <v>759.4782997904</v>
+      </c>
+      <c r="S15">
+        <v>0.1682882374528902</v>
+      </c>
+      <c r="T15">
+        <v>0.1682882374528902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.056273333333333</v>
+      </c>
+      <c r="H16">
+        <v>9.16882</v>
+      </c>
+      <c r="I16">
+        <v>0.3528261180341785</v>
+      </c>
+      <c r="J16">
+        <v>0.3528261180341785</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.423514</v>
+      </c>
+      <c r="N16">
+        <v>13.270542</v>
+      </c>
+      <c r="O16">
+        <v>0.07641520344774541</v>
+      </c>
+      <c r="P16">
+        <v>0.0764152034477454</v>
+      </c>
+      <c r="Q16">
+        <v>13.51946787782667</v>
+      </c>
+      <c r="R16">
+        <v>121.67521090044</v>
+      </c>
+      <c r="S16">
+        <v>0.02696127959125999</v>
+      </c>
+      <c r="T16">
+        <v>0.02696127959125998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.056273333333333</v>
+      </c>
+      <c r="H17">
+        <v>9.16882</v>
+      </c>
+      <c r="I17">
+        <v>0.3528261180341785</v>
+      </c>
+      <c r="J17">
+        <v>0.3528261180341785</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.723210333333332</v>
+      </c>
+      <c r="N17">
+        <v>26.169631</v>
+      </c>
+      <c r="O17">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="P17">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="Q17">
+        <v>26.66051512282444</v>
+      </c>
+      <c r="R17">
+        <v>239.94463610542</v>
+      </c>
+      <c r="S17">
+        <v>0.05316789157451932</v>
+      </c>
+      <c r="T17">
+        <v>0.05316789157451931</v>
       </c>
     </row>
   </sheetData>
